--- a/final_data_pipeline/output/311422longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311422longform_elec_options_nowhp.xlsx
@@ -590,7 +590,7 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -605,10 +605,10 @@
         <v>692781.6980165992</v>
       </c>
       <c r="N3">
-        <v>1.633402489626556</v>
+        <v>1.770060578304223</v>
       </c>
       <c r="O3">
-        <v>1.758597285067873</v>
+        <v>1.920269002905048</v>
       </c>
       <c r="P3">
         <v>86.5977122520749</v>
